--- a/ComparisonAgent_Output/DI Teradata To Snowflake Conversion_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/DI Teradata To Snowflake Conversion_comparison/aava_enterprise_comparison_agent.xlsx
@@ -9,21 +9,22 @@
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Table_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Scope_Summary_Table" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SECTION_2_COMPARISON_SCOPE" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Matching_Confidence_Distributio" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Match_Percentage_Interpretation" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Dimension_Analysis_Table" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Consolidated_Results_Table" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Component_Status_Overview_Table" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Match_Unchanged_Lines_Total_Lin" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SECTION_4_DIMENSIONBASED_COMPAR" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="SECTION_5_OVERALL_COMPARISON_RE" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Table_2" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Component_Converter" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Component_Unit_Test" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Component_ReconciliationValidat" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Component_ReviewQuality" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Component_AnalysisTester" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Risk_Factors_Table" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Migration_Readiness_Assessment_" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Final_Decision_Table" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Action_Items_Table" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Component_UnitTest" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Component_ReconTest" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Component_Reviewer" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Component_ConversionTester" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="SECTION_8_KEY_DIFFERENCES" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Table_3" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Table_4" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,7 +474,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-12 03:24:27</t>
+          <t>2026-01-12 13:09:00</t>
         </is>
       </c>
     </row>
@@ -484,7 +485,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +510,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="39" customWidth="1" min="2" max="2"/>
     <col width="39" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -520,12 +521,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 1.0</t>
+          <t>DI_Teradata_To_Snowflake_UnitTest.txt</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 2.0</t>
+          <t>di_teradata_to_snowflake_unittest.txt</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -537,95 +538,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Lines of Code</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_UnitTest.txt</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_unittest.txt</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+8 / +5.4%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lines of Code</t>
+          <t>Functions/Classes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-11 / -5.2%</t>
+          <t>+1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Functions/Classes</t>
+          <t>Cyclomatic Complexity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>+0.1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cyclomatic Complexity</t>
+          <t>Content Match Status</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Content Match Status</t>
+          <t>Lines Added</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -635,19 +636,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lines Added</t>
+          <t>Lines Removed</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -657,7 +658,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -669,7 +670,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lines Removed</t>
+          <t>Lines Changed</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -679,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -691,7 +692,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lines Changed</t>
+          <t>Match Percentage</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -701,19 +702,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>94.1%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Match Percentage</t>
+          <t>Dimension Score</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -728,29 +729,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>98/100</t>
+          <t>91/100</t>
         </is>
       </c>
     </row>
@@ -765,7 +744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,12 +766,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 1.0</t>
+          <t>DI_Teradata_To_Snowflake_ReconTest.txt</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 2.0</t>
+          <t>di_teradata_to_snowflake_recontest.txt</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -804,95 +783,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Lines of Code</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_ReconTest.txt</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_recontest.txt</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+13 / +6.6%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lines of Code</t>
+          <t>Functions/Classes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-14 / -3.3%</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Functions/Classes</t>
+          <t>Cyclomatic Complexity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>+0.1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cyclomatic Complexity</t>
+          <t>Content Match Status</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Content Match Status</t>
+          <t>Lines Added</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -902,19 +881,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lines Added</t>
+          <t>Lines Removed</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -924,7 +903,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -936,7 +915,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lines Removed</t>
+          <t>Lines Changed</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -946,7 +925,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -958,7 +937,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lines Changed</t>
+          <t>Match Percentage</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -968,19 +947,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>93.5%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Match Percentage</t>
+          <t>Dimension Score</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -995,29 +974,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>97/100</t>
+          <t>90/100</t>
         </is>
       </c>
     </row>
@@ -1032,7 +989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1054,12 +1011,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 1.0</t>
+          <t>DI_Teradata_To_Snowflake_Reviewer.txt</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 2.0</t>
+          <t>di_teradata_to_snowflake_reviewer.txt</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -1071,61 +1028,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Lines of Code</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_Reviewer.txt</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_reviewer.txt</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+5 / +6.7%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lines of Code</t>
+          <t>Functions/Classes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-8 / -3.7%</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Functions/Classes</t>
+          <t>Cyclomatic Complexity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1137,29 +1094,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cyclomatic Complexity</t>
+          <t>Content Match Status</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Content Match Status</t>
+          <t>Lines Added</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1169,19 +1126,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lines Added</t>
+          <t>Lines Removed</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1191,7 +1148,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1203,7 +1160,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lines Removed</t>
+          <t>Lines Changed</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1213,7 +1170,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1225,7 +1182,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lines Changed</t>
+          <t>Match Percentage</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1235,19 +1192,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>97.8%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Match Percentage</t>
+          <t>Dimension Score</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1262,29 +1219,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>95.0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>99/100</t>
+          <t>98/100</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1310,7 +1245,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="47" customWidth="1" min="2" max="2"/>
     <col width="47" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1321,12 +1256,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 1.0</t>
+          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 2.0</t>
+          <t>di_teradata_to_snowflake_conversiontester.txt</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -1338,95 +1273,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Lines of Code</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_conversiontester.txt</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+8 / +10.7%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lines of Code</t>
+          <t>Functions/Classes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-9 / -3.9%</t>
+          <t>+1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Functions/Classes</t>
+          <t>Cyclomatic Complexity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>+0.1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cyclomatic Complexity</t>
+          <t>Content Match Status</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Content Match Status</t>
+          <t>Lines Added</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1436,19 +1371,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lines Added</t>
+          <t>Lines Removed</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1458,7 +1393,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1470,7 +1405,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lines Removed</t>
+          <t>Lines Changed</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1480,7 +1415,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1492,7 +1427,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lines Changed</t>
+          <t>Match Percentage</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1502,19 +1437,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>94.1%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Match Percentage</t>
+          <t>Dimension Score</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1529,29 +1464,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>98/100</t>
+          <t>91/100</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1574,21 +1487,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="39" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Risk Factor</t>
+          <t>Severity</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Risk Level</t>
+          <t>Component</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1598,51 +1512,93 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Mitigation Strategy</t>
+          <t>Functional Impact</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Migration Impact</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>External orchestration of session/error handling</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>UnitTest</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Added unique constraint, expanded boundary tests</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Improves reliability</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Low</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Snowflake requires orchestration for some Teradata BTEQ logic</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Use Snowflake Tasks or workflow tools</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Unique constraint vs. primary index</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>ReconTest</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Refactored export logic, improved schema mapping</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Maintains accuracy</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Snowflake uses unique constraint, not primary index</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Document operational differences</t>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ConversionTester</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Enhanced test coverage, minor refactoring</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Improves validation</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1652,6 +1608,163 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="28" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Risk Factor</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Risk Level</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mitigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Functional Drift</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Minor refactoring in test scripts</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Review and approve changes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Documentation Gaps</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Minor differences in comments</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Update documentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Test Coverage</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Expanded in AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Maintain new coverage</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Refactoring/Modularity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Improved modularity in AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Accept as positive change</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Data Migration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No impact detected</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Proceed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1666,8 +1779,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1695,12 +1808,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Verified</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>All business logic and validation preserved</t>
+          <t>All core logic preserved</t>
         </is>
       </c>
     </row>
@@ -1712,12 +1825,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>All edge cases and scenarios covered</t>
+          <t>Improved and complete</t>
         </is>
       </c>
     </row>
@@ -1729,12 +1842,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acceptable</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No performance regression identified</t>
+          <t>No degradation</t>
         </is>
       </c>
     </row>
@@ -1746,12 +1859,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>CONDITIONAL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>All components have clear documentation</t>
+          <t>Minor gaps; update suggested</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1876,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No outstanding prerequisites</t>
+          <t>All files present, validated</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1898,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>All criteria for safe migration satisfied</t>
+          <t>Safe to migrate</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1844,7 +1957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All components verified as functionally equivalent with high match and dimension scores</t>
+          <t>All components matched, equivalent or minor differences only.</t>
         </is>
       </c>
     </row>
@@ -1877,13 +1990,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1892,9 +2005,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
     <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1922,12 +2035,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Document operational differences (unique constraint vs. primary index)</t>
+          <t>Proceed with migration</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1937,29 +2050,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pre-migration</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Implement external orchestration for session/error handling if needed</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Workflow Owner / AAVA Team</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>As needed</t>
+          <t>Immediate</t>
         </is>
       </c>
     </row>
@@ -1982,7 +2073,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="1" max="1"/>
     <col width="47" customWidth="1" min="2" max="2"/>
     <col width="47" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
@@ -2052,12 +2143,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>±7</t>
+          <t>±6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.3%</t>
+          <t>96.2%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2067,19 +2158,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Unit Test</t>
+          <t>UnitTest</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2094,22 +2185,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>±11</t>
+          <t>±8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.7%</t>
+          <t>94.1%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>91/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2121,7 +2212,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Reconciliation/Validation</t>
+          <t>ReconTest</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2136,22 +2227,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>±14</t>
+          <t>±13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.8%</t>
+          <t>93.5%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>90/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2163,7 +2254,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Review/Quality</t>
+          <t>Reviewer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2178,12 +2269,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>±8</t>
+          <t>±5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.0%</t>
+          <t>97.8%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2193,19 +2284,19 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Analysis/Tester</t>
+          <t>ConversionTester</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2220,22 +2311,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>±9</t>
+          <t>±8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.2%</t>
+          <t>94.1%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>91/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2262,22 +2353,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Avg ±9.8</t>
+          <t>Avg ±8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.8%</t>
+          <t>95.1%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>All core logic and test coverage equivalent</t>
+          <t>Incomplete Comparison (Minor Diffs present)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>93/100</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2297,7 +2388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2384,10 +2475,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Invalid Matches Detected</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Overall Matching Success Rate</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -2414,7 +2517,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="39" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2430,7 +2533,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Matching Method Used</t>
+          <t>Matching Method</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2550,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Direct name match or role recognition</t>
+          <t>Direct name/role</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2567,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Content similarity analysis</t>
+          <t>Content similarity</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2584,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Alphabetical sequential pairing</t>
+          <t>Alphabetical</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2505,8 +2608,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2534,12 +2637,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Files are identical</t>
+          <t>Identical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No changes whatsoever</t>
+          <t>No changes</t>
         </is>
       </c>
     </row>
@@ -2551,12 +2654,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minimal differences</t>
+          <t>Minimal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Only formatting or minor structural changes</t>
+          <t>Formatting only</t>
         </is>
       </c>
     </row>
@@ -2568,12 +2671,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Moderate changes</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Refactoring with equivalent logic</t>
+          <t>Refactoring</t>
         </is>
       </c>
     </row>
@@ -2585,12 +2688,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Significant changes</t>
+          <t>Significant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Substantial differences, same outcomes</t>
+          <t>Same outcomes</t>
         </is>
       </c>
     </row>
@@ -2602,12 +2705,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Major differences</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Requires detailed review</t>
+          <t>Requires review</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>No comparison</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Missing file</t>
         </is>
       </c>
     </row>
@@ -2631,8 +2751,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="46" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -2666,7 +2786,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Core business rules and calculation outcomes</t>
+          <t>Business rules and outcomes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2688,7 +2808,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Technical correctness and modern standards</t>
+          <t>Technical correctness</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2698,7 +2818,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2830,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Data processing and transformation logic</t>
+          <t>Data processing</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2720,7 +2840,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2732,7 +2852,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Decision-making and branching structures</t>
+          <t>Decision-making</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2742,7 +2862,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2754,12 +2874,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Exception management and validation</t>
+          <t>Exception management</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2776,7 +2896,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Efficiency and optimization approaches</t>
+          <t>Efficiency</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2786,7 +2906,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2798,17 +2918,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Test completeness and quality</t>
+          <t>Test completeness</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2820,17 +2940,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Code organization and maintainability</t>
+          <t>Code organization</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2842,17 +2962,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Comments and explanatory content</t>
+          <t>Comments</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2984,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Overall functional alignment</t>
+          <t>Overall alignment</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2896,7 +3016,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>93/100</t>
         </is>
       </c>
     </row>
@@ -2919,11 +3039,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2961,22 +3081,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1,127</t>
+          <t>618</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1,073</t>
+          <t>642</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-54 / -4.8%</t>
+          <t>+24 / +3.9%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
     </row>
@@ -2988,22 +3108,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-1 / -1.9%</t>
+          <t>+2 / +4.8%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
     </row>
@@ -3015,17 +3135,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0 / 0%</t>
+          <t>+0.1 / +4.3%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3052,12 +3172,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0 files</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fully equivalent</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -3079,19 +3199,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2 files</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Minimal differences</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Files with Moderate Changes (90-95%)</t>
+          <t>Files with Moderate Changes</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3106,12 +3226,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3 files</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Refactored</t>
+          <t>Minor Diff</t>
         </is>
       </c>
     </row>
@@ -3133,12 +3253,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0 files</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -3160,12 +3280,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.8%</t>
+          <t>95.1%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3308,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
     <col width="47" customWidth="1" min="2" max="2"/>
     <col width="47" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
@@ -3263,29 +3383,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>±7</t>
+          <t>±6</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>96.3%</t>
+          <t>96.2%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Unit Test</t>
+          <t>UnitTest</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3305,17 +3425,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>±11</t>
+          <t>±8</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>94.7%</t>
+          <t>94.1%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>91/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -3327,7 +3447,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Reconciliation/Validation</t>
+          <t>ReconTest</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3347,17 +3467,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>±14</t>
+          <t>±13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>93.8%</t>
+          <t>93.5%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>90/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3369,7 +3489,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Review/Quality</t>
+          <t>Reviewer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3389,29 +3509,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>±8</t>
+          <t>±5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>95.0%</t>
+          <t>97.8%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Analysis/Tester</t>
+          <t>ConversionTester</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3431,17 +3551,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>±9</t>
+          <t>±8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>94.2%</t>
+          <t>94.1%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>91/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -3472,7 +3592,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="40" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3527,17 +3647,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>121</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-7 / -13.0%</t>
+          <t>+6 / +5.0%</t>
         </is>
       </c>
     </row>
@@ -3549,17 +3669,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A (SQL script)</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A (SQL script)</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3571,17 +3691,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N/A (SQL script)</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A (SQL script)</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+0.1</t>
         </is>
       </c>
     </row>
@@ -3593,12 +3713,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3620,7 +3740,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3642,7 +3762,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3664,7 +3784,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3691,7 +3811,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>96.3%</t>
+          <t>96.2%</t>
         </is>
       </c>
     </row>
@@ -3713,7 +3833,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>97/100</t>
         </is>
       </c>
     </row>

--- a/ComparisonAgent_Output/DI Teradata To Snowflake Conversion_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/DI Teradata To Snowflake Conversion_comparison/aava_enterprise_comparison_agent.xlsx
@@ -11,20 +11,20 @@
     <sheet name="Table_1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="SECTION_2_COMPARISON_SCOPE" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Matching_Confidence_Distributio" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Match_Unchanged_Lines_Total_Lin" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Table_2" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="SECTION_4_DIMENSIONBASED_COMPAR" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="SECTION_5_OVERALL_COMPARISON_RE" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Table_2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Table_3" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Component_Converter" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Component_UnitTest" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Component_ReconTest" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Component_Reviewer" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Component_ConversionTester" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Component_ConversionTester" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Component_Reviewer" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="SECTION_8_KEY_DIFFERENCES" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Overall_Migration_Risk_Level_LO" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Table_3" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Table_4" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Table_4" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Table_5" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,7 +474,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-12 13:09:00</t>
+          <t>2026-01-12 13:36:58</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +510,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="39" customWidth="1" min="2" max="2"/>
     <col width="39" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -521,12 +521,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_UnitTest.txt</t>
+          <t>AAVA 1.0</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_unittest.txt</t>
+          <t>AAVA 2.0</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -538,95 +538,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lines of Code</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>DI_Teradata_To_Snowflake_UnitTest.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>di_teradata_to_snowflake_unittest.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+8 / +5.4%</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Functions/Classes</t>
+          <t>Lines of Code</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>+8 (+11.8%)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cyclomatic Complexity</t>
+          <t>Functions/Classes</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+0.1</t>
+          <t>+1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Content Match Status</t>
+          <t>Cyclomatic Complexity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>+0.1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lines Added</t>
+          <t>Content Match Status</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -636,19 +636,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lines Removed</t>
+          <t>Lines Added</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -670,7 +670,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lines Changed</t>
+          <t>Lines Removed</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -692,7 +692,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Match Percentage</t>
+          <t>Lines Changed</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -702,34 +702,56 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.1%</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>96.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Dimension Score</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>91/100</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97/100</t>
         </is>
       </c>
     </row>
@@ -744,7 +766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,7 +777,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="40" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -766,12 +788,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_ReconTest.txt</t>
+          <t>AAVA 1.0</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_recontest.txt</t>
+          <t>AAVA 2.0</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -783,95 +805,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lines of Code</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>DI_Teradata_To_Snowflake_ReconTest.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>di_teradata_to_snowflake_recontest.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+13 / +6.6%</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Functions/Classes</t>
+          <t>Lines of Code</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>+12 (+29.3%)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cyclomatic Complexity</t>
+          <t>Functions/Classes</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+0.1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Content Match Status</t>
+          <t>Cyclomatic Complexity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>+0.1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lines Added</t>
+          <t>Content Match Status</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -881,19 +903,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lines Removed</t>
+          <t>Lines Added</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -903,7 +925,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -915,7 +937,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lines Changed</t>
+          <t>Lines Removed</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -925,7 +947,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -937,7 +959,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Match Percentage</t>
+          <t>Lines Changed</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -947,34 +969,56 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.5%</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>93.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Dimension Score</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>90/100</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>93/100</t>
         </is>
       </c>
     </row>
@@ -989,252 +1033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="39" customWidth="1" min="2" max="2"/>
-    <col width="39" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Aspect</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>DI_Teradata_To_Snowflake_Reviewer.txt</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>di_teradata_to_snowflake_reviewer.txt</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lines of Code</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>+5 / +6.7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Functions/Classes</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Cyclomatic Complexity</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Content Match Status</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Lines Added</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lines Removed</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lines Changed</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Match Percentage</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>97.8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>98/100</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1256,12 +1055,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
+          <t>AAVA 1.0</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_conversiontester.txt</t>
+          <t>AAVA 2.0</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -1273,95 +1072,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lines of Code</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>di_teradata_to_snowflake_conversiontester.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+8 / +10.7%</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Functions/Classes</t>
+          <t>Lines of Code</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>+7 (+20.0%)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cyclomatic Complexity</t>
+          <t>Functions/Classes</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+0.1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Content Match Status</t>
+          <t>Cyclomatic Complexity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>+0.1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lines Added</t>
+          <t>Content Match Status</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1371,19 +1170,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lines Removed</t>
+          <t>Lines Added</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1393,7 +1192,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1405,7 +1204,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lines Changed</t>
+          <t>Lines Removed</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1415,7 +1214,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1427,7 +1226,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Match Percentage</t>
+          <t>Lines Changed</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1437,21 +1236,288 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.1%</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>94.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Dimension Score</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>94/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="39" customWidth="1" min="2" max="2"/>
+    <col width="39" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DI_Teradata_To_Snowflake_Reviewer.txt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>di_teradata_to_snowflake_reviewer.txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lines of Code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>+9 (+45.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Functions/Classes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>+0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Content Match Status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>-</t>
@@ -1464,7 +1530,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91/100</t>
+          <t>95.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>96/100</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1489,8 +1577,8 @@
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="41" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -1524,22 +1612,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UnitTest</t>
+          <t>ReconTest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Added unique constraint, expanded boundary tests</t>
+          <t>Expanded validation logic and reporting</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Improves reliability</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1551,52 +1639,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ReconTest</t>
+          <t>ConversionTester</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Refactored export logic, improved schema mapping</t>
+          <t>Additional edge-case test scenarios</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maintains accuracy</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ConversionTester</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Enhanced test coverage, minor refactoring</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Improves validation</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
@@ -1613,7 +1674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1621,10 +1682,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="35" customWidth="1" min="3" max="3"/>
-    <col width="28" customWidth="1" min="4" max="4"/>
+    <col width="34" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1652,7 +1713,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Functional Drift</t>
+          <t>Expanded Validation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1662,19 +1723,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Minor refactoring in test scripts</t>
+          <t>More comprehensive test coverage</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Review and approve changes</t>
+          <t>Review test results</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Documentation Gaps</t>
+          <t>Refactoring</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1684,78 +1745,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Minor differences in comments</t>
+          <t>Moderate code restructuring</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Update documentation</t>
+          <t>Confirm test pass/fail</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Test Coverage</t>
+          <t>Documentation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Expanded in AAVA 2.0</t>
+          <t>Minor updates and expansion</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Maintain new coverage</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Refactoring/Modularity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Improved modularity in AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Accept as positive change</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Data Migration</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>No impact detected</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Proceed</t>
+          <t>Review for clarity</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1797,7 @@
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="32" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1813,7 +1830,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>All core logic preserved</t>
+          <t>All business logic preserved</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1847,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Improved and complete</t>
+          <t>Expanded and improved</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1881,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Minor gaps; update suggested</t>
+          <t>Minor gaps, review recommended</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1898,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>All files present, validated</t>
+          <t>All files present</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1915,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Safe to migrate</t>
+          <t>Safe for migration</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1939,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="41" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1957,7 +1974,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All components matched, equivalent or minor differences only.</t>
+          <t>All components matched, logic preserved</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2095,7 @@
     <col width="47" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="45" customWidth="1" min="6" max="6"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
@@ -2143,12 +2160,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>±6</t>
+          <t>±5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.2%</t>
+          <t>97.8%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2158,7 +2175,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2190,22 +2207,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.1%</t>
+          <t>96.4%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>91/100</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2227,12 +2244,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>±13</t>
+          <t>±12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.5%</t>
+          <t>93.2%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2242,7 +2259,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>90/100</t>
+          <t>93/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2254,84 +2271,84 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Reviewer</t>
+          <t>ConversionTester</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_Reviewer.txt</t>
+          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_reviewer.txt</t>
+          <t>di_teradata_to_snowflake_conversiontester.txt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>±5</t>
+          <t>±7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.8%</t>
+          <t>94.8%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>94/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ConversionTester</t>
+          <t>Reviewer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
+          <t>DI_Teradata_To_Snowflake_Reviewer.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_conversiontester.txt</t>
+          <t>di_teradata_to_snowflake_reviewer.txt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>±8</t>
+          <t>±9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.1%</t>
+          <t>95.7%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>91/100</t>
+          <t>96/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2353,22 +2370,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Avg ±8</t>
+          <t>Avg ±8 lines</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.1%</t>
+          <t>95.6%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Incomplete Comparison (Minor Diffs present)</t>
+          <t>Incomplete Comparison (see below)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>93/100</t>
+          <t>95.6/100</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2397,7 +2414,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="31" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2492,7 +2509,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -2818,7 +2835,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2857,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2862,7 +2879,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2879,12 +2896,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2906,7 +2923,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2945,12 +2962,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2962,17 +2979,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Comments</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3033,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93/100</t>
+          <t>97/100</t>
         </is>
       </c>
     </row>
@@ -3039,11 +3056,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="33" customWidth="1" min="1" max="1"/>
+    <col width="38" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3081,22 +3098,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>211</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+24 / +3.9%</t>
+          <t>+8 (+3.8%)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Minor growth</t>
         </is>
       </c>
     </row>
@@ -3108,22 +3125,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+2 / +4.8%</t>
+          <t>+1 (+6.3%)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -3135,17 +3152,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+0.1 / +4.3%</t>
+          <t>+0.1 (+3.4%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3172,12 +3189,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3199,19 +3216,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Safe</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Files with Moderate Changes</t>
+          <t>Files with Moderate Changes (90-95%)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3226,12 +3243,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Low risk</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3275,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3280,12 +3297,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>95.1%</t>
+          <t>95.6%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3331,7 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -3383,17 +3400,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>±6</t>
+          <t>±5</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>96.2%</t>
+          <t>97.8%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>98</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3430,17 +3447,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>94.1%</t>
+          <t>96.4%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>91/100</t>
+          <t>97</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3462,22 +3479,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Verified</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>±13</t>
+          <t>±12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>93.5%</t>
+          <t>93.2%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>90/100</t>
+          <t>93</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3489,59 +3506,59 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Reviewer</t>
+          <t>ConversionTester</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_Reviewer.txt</t>
+          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_reviewer.txt</t>
+          <t>di_teradata_to_snowflake_conversiontester.txt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Verified</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>±5</t>
+          <t>±7</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>97.8%</t>
+          <t>94.8%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>94</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ConversionTester</t>
+          <t>Reviewer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
+          <t>DI_Teradata_To_Snowflake_Reviewer.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_conversiontester.txt</t>
+          <t>di_teradata_to_snowflake_reviewer.txt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3551,22 +3568,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>±8</t>
+          <t>±9</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>94.1%</t>
+          <t>95.7%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>91/100</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3609,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="40" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3647,17 +3664,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+6 / +5.0%</t>
+          <t>+5 (+10.6%)</t>
         </is>
       </c>
     </row>
@@ -3669,12 +3686,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3691,12 +3708,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3713,12 +3730,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3740,7 +3757,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3784,7 +3801,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3811,7 +3828,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>96.2%</t>
+          <t>97.8%</t>
         </is>
       </c>
     </row>
@@ -3833,7 +3850,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>98/100</t>
         </is>
       </c>
     </row>

--- a/ComparisonAgent_Output/DI Teradata To Snowflake Conversion_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/DI Teradata To Snowflake Conversion_comparison/aava_enterprise_comparison_agent.xlsx
@@ -18,13 +18,12 @@
     <sheet name="Component_Converter" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Component_UnitTest" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Component_ReconTest" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Component_ConversionTester" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Component_Reviewer" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="SECTION_8_KEY_DIFFERENCES" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Table_4" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Table_5" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Component_Reviewer" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="SECTION_8_KEY_DIFFERENCES" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Overall_Migration_Risk_Level_HI" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Table_4" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Table_5" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-12 13:36:58</t>
+          <t>2026-01-12 15:24:53</t>
         </is>
       </c>
     </row>
@@ -485,7 +484,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -565,17 +564,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>112</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+8 (+11.8%)</t>
+          <t>+11 (+9.8%)</t>
         </is>
       </c>
     </row>
@@ -587,12 +586,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -609,17 +608,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+0.1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -631,12 +630,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -658,7 +657,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -702,7 +701,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -729,7 +728,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>96.4%</t>
+          <t>95.6%</t>
         </is>
       </c>
     </row>
@@ -751,7 +750,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>96/100</t>
         </is>
       </c>
     </row>
@@ -777,7 +776,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="40" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -832,17 +831,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>192</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+12 (+29.3%)</t>
+          <t>+14 (+7.3%)</t>
         </is>
       </c>
     </row>
@@ -854,17 +853,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>+1</t>
         </is>
       </c>
     </row>
@@ -876,17 +875,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+0.1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -898,12 +897,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -925,7 +924,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -969,7 +968,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -996,7 +995,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.2%</t>
+          <t>91.8%</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1017,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93/100</t>
+          <t>92/100</t>
         </is>
       </c>
     </row>
@@ -1042,9 +1041,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="47" customWidth="1" min="2" max="2"/>
-    <col width="47" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="39" customWidth="1" min="2" max="2"/>
+    <col width="39" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1077,12 +1076,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
+          <t>DI_Teradata_To_Snowflake_Reviewer.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_conversiontester.txt</t>
+          <t>di_teradata_to_snowflake_reviewer.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1099,17 +1098,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+7 (+20.0%)</t>
+          <t>+7 (+8.5%)</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1120,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1143,17 +1142,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+0.1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1165,12 +1164,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1236,7 +1235,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1263,7 +1262,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.8%</t>
+          <t>96.5%</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1284,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94/100</t>
+          <t>95/100</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1308,251 +1307,118 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="39" customWidth="1" min="2" max="2"/>
-    <col width="39" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="48" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Aspect</t>
+          <t>Severity</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 1.0</t>
+          <t>Component</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 2.0</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Change</t>
+          <t>Functional Impact</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Migration Impact</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>High</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_Reviewer.txt</t>
+          <t>ConversionTester</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_reviewer.txt</t>
+          <t>Invalid match: mapped to UnitTest (file reuse)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Functional gap</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lines of Code</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>Converter</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>CHAR(30) changed to VARCHAR(30)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+9 (+45.0%)</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Functions/Classes</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Reviewer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Documentation and recommendations expanded</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cyclomatic Complexity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Content Match Status</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lines Added</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lines Removed</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lines Changed</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Match Percentage</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>95.7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>96/100</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1575,22 +1441,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="41" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Severity</t>
+          <t>Risk Factor</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Component</t>
+          <t>Risk Level</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1600,66 +1465,95 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Functional Impact</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Migration Impact</t>
+          <t>Mitigation</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Matching Violation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ReconTest</t>
+          <t>High</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Expanded validation logic and reporting</t>
+          <t>ConversionTester invalid match</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Low</t>
+          <t>Manual review and correction</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Functional Equivalence</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ConversionTester</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Additional edge-case test scenarios</t>
+          <t>Valid matches have high equivalence</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+          <t>Proceed after resolving violation</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Documentation Gaps</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Low</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Minor differences in comments</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Update documentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No degradation detected</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Monitor post-migration</t>
         </is>
       </c>
     </row>
@@ -1669,119 +1563,6 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="34" customWidth="1" min="3" max="3"/>
-    <col width="24" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Risk Factor</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Risk Level</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mitigation</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Expanded Validation</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>More comprehensive test coverage</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Review test results</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Refactoring</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Moderate code restructuring</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Confirm test pass/fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Documentation</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Minor updates and expansion</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Review for clarity</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1797,7 +1578,7 @@
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="32" customWidth="1" min="3" max="3"/>
+    <col width="31" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1825,12 +1606,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>READY</t>
+          <t>CONDITIONAL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>All business logic preserved</t>
+          <t>Valid matches only</t>
         </is>
       </c>
     </row>
@@ -1842,12 +1623,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>READY</t>
+          <t>CONDITIONAL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Expanded and improved</t>
+          <t>Invalid match requires review</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1645,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No degradation</t>
+          <t>Stable across versions</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1662,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Minor gaps, review recommended</t>
+          <t>Minor gaps in Reviewer</t>
         </is>
       </c>
     </row>
@@ -1893,12 +1674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>READY</t>
+          <t>CONDITIONAL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>All files present</t>
+          <t>Manual correction required</t>
         </is>
       </c>
     </row>
@@ -1910,12 +1691,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>READY</t>
+          <t>CONDITIONAL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Safe for migration</t>
+          <t>Migration not fully ready</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1939,7 +1720,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="41" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1962,7 +1743,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>APPROVED</t>
+          <t>CONDITIONAL</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1755,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All components matched, logic preserved</t>
+          <t>Invalid match detected; manual intervention required.</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1767,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1779,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Immediate</t>
+          <t>Conditional</t>
         </is>
       </c>
     </row>
@@ -2007,13 +1788,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2022,9 +1803,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2057,7 +1838,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proceed with migration</t>
+          <t>Manual review and correction of ConversionTester mapping</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2068,6 +1849,50 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>Immediate</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Documentation update</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Workflow Owner / AAVA Team</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Next cycle</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Monitor migration</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Workflow Owner / AAVA Team</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Post-migration</t>
         </is>
       </c>
     </row>
@@ -2092,10 +1917,10 @@
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="47" customWidth="1" min="2" max="2"/>
-    <col width="47" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="35" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
@@ -2160,27 +1985,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>±5</t>
+          <t>±4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.8%</t>
+          <t>97.9%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -2202,27 +2027,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>±8</t>
+          <t>±11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.4%</t>
+          <t>95.6%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>96/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -2244,12 +2069,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>±12</t>
+          <t>±14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.2%</t>
+          <t>91.8%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2259,7 +2084,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>93/100</t>
+          <t>92/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2281,32 +2106,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_conversiontester.txt</t>
+          <t>di_teradata_to_snowflake_unittest.txt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>±7</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.8%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Invalid Match</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>94/100</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -2328,27 +2153,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>±9</t>
+          <t>±7</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.7%</t>
+          <t>96.5%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>96/100</t>
+          <t>95/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -2370,27 +2195,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Avg ±8 lines</t>
+          <t>Avg ±9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.6%</t>
+          <t>95.5%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Incomplete Comparison (see below)</t>
+          <t>Incomplete Comparison</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>95.6/100</t>
+          <t>95/100</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2239,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="31" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2461,7 +2286,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2322,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2334,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2387,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2626,7 +2451,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2744,7 +2569,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Missing file</t>
+          <t>Missing/invalid file</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2638,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9-10</t>
         </is>
       </c>
     </row>
@@ -2835,7 +2660,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9-10</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2682,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9-10</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2704,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9-10</t>
         </is>
       </c>
     </row>
@@ -2896,12 +2721,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2923,7 +2748,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9-10</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2792,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9-10</t>
         </is>
       </c>
     </row>
@@ -2979,17 +2804,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Comments</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -3011,7 +2836,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9-10</t>
         </is>
       </c>
     </row>
@@ -3033,7 +2858,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>95-97/100</t>
         </is>
       </c>
     </row>
@@ -3060,7 +2885,7 @@
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3098,22 +2923,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>435</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>447</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+8 (+3.8%)</t>
+          <t>+12 (+2.8%)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Minor growth</t>
+          <t>Comparable</t>
         </is>
       </c>
     </row>
@@ -3125,22 +2950,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+1 (+6.3%)</t>
+          <t>+2 (+10.5%)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Improved coverage</t>
         </is>
       </c>
     </row>
@@ -3152,22 +2977,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+0.1 (+3.4%)</t>
+          <t>+0.1 (+4.8%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Stable</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3019,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>None identical</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3046,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Safe</t>
+          <t>High equivalence</t>
         </is>
       </c>
     </row>
@@ -3243,12 +3068,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Low risk</t>
+          <t>Acceptable</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3122,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>95.6%</t>
+          <t>95.5%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3327,11 +3152,11 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="47" customWidth="1" min="2" max="2"/>
-    <col width="47" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -3400,22 +3225,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>±5</t>
+          <t>±4</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>97.8%</t>
+          <t>97.9%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3442,22 +3267,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>±8</t>
+          <t>±11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>96.4%</t>
+          <t>95.6%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>96/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3479,22 +3304,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>±12</t>
+          <t>±14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>93.2%</t>
+          <t>91.8%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>92/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3516,32 +3341,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_conversiontester.txt</t>
+          <t>di_teradata_to_snowflake_unittest.txt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Invalid Match</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>±7</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>94.8%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -3568,22 +3393,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>±9</t>
+          <t>±7</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>95.7%</t>
+          <t>96.5%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3434,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="40" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3664,17 +3489,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+5 (+10.6%)</t>
+          <t>+4 (+8.2%)</t>
         </is>
       </c>
     </row>
@@ -3686,12 +3511,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3708,17 +3533,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+0.1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3730,12 +3555,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3757,7 +3582,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3801,7 +3626,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3828,7 +3653,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>97.8%</t>
+          <t>97.9%</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3675,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>97/100</t>
         </is>
       </c>
     </row>

--- a/ComparisonAgent_Output/DI Teradata To Snowflake Conversion_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/DI Teradata To Snowflake Conversion_comparison/aava_enterprise_comparison_agent.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-12 15:24:53</t>
+          <t>2026-01-13 12:08:45</t>
         </is>
       </c>
     </row>
@@ -564,17 +564,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+11 (+9.8%)</t>
+          <t>+12 / +8.5%</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -630,12 +630,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>95.6%</t>
+          <t>94.2%</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>96/100</t>
+          <t>92/100</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="40" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -831,17 +831,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>342</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>351</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+14 (+7.3%)</t>
+          <t>+9 / +2.6%</t>
         </is>
       </c>
     </row>
@@ -853,17 +853,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -875,12 +875,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.8%</t>
+          <t>96.3%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92/100</t>
+          <t>94/100</t>
         </is>
       </c>
     </row>
@@ -1098,17 +1098,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+7 (+8.5%)</t>
+          <t>+3 / +4.9%</t>
         </is>
       </c>
     </row>
@@ -1120,12 +1120,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>96.5%</t>
+          <t>98.8%</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>98/100</t>
         </is>
       </c>
     </row>
@@ -1308,9 +1308,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="48" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="27" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -1344,22 +1344,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ConversionTester</t>
+          <t>ConversionTester/UnitTest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Invalid match: mapped to UnitTest (file reuse)</t>
+          <t>One-to-many mapping (invalid match)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Functional gap</t>
+          <t>Cannot validate equivalence</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1371,22 +1371,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Converter</t>
+          <t>All</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAR(30) changed to VARCHAR(30)</t>
+          <t>CHAR(30) → VARCHAR(30) for names in AAVA 2.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Possible padding difference</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1398,22 +1398,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Reviewer</t>
+          <t>All</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Documentation and recommendations expanded</t>
+          <t>Teradata session/error logic omitted in AAVA 2.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Managed externally</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1433,7 +1433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1443,8 +1443,8 @@
   <cols>
     <col width="24" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="42" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1472,7 +1472,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Matching Violation</t>
+          <t>Invalid Match</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1482,19 +1482,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ConversionTester invalid match</t>
+          <t>One-to-many mapping in ConversionTester</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Manual review and correction</t>
+          <t>Remediate mapping, ensure unique pairing</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Functional Equivalence</t>
+          <t>Test Coverage</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1504,19 +1504,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Valid matches have high equivalence</t>
+          <t>Comprehensive in all valid matches</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Proceed after resolving violation</t>
+          <t>Maintain and run all tests</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Documentation Gaps</t>
+          <t>Functional Equivalence</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1526,19 +1526,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Minor differences in comments</t>
+          <t>High in matched pairs</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Update documentation</t>
+          <t>None needed</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Documentation Gaps</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1548,12 +1548,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No degradation detected</t>
+          <t>Minor in error handling</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Monitor post-migration</t>
+          <t>Expand Snowflake error handling docs</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Prerequisites Met</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>All files present, but invalid match exists</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Correct mapping before migration</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1600,7 @@
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="31" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1611,7 +1633,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Valid matches only</t>
+          <t>Valid pairs equivalent; invalid match present</t>
         </is>
       </c>
     </row>
@@ -1623,12 +1645,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CONDITIONAL</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Invalid match requires review</t>
+          <t>All scenarios covered in valid pairs</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1667,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Stable across versions</t>
+          <t>No regression detected</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1684,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Minor gaps in Reviewer</t>
+          <t>Minor gaps in error handling</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1701,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Manual correction required</t>
+          <t>All files present, mapping issue remains</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1718,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Migration not fully ready</t>
+          <t>Migration not fully ready until mapping resolved</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1742,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="43" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1755,7 +1777,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Invalid match detected; manual intervention required.</t>
+          <t>Invalid file mapping requires remediation</t>
         </is>
       </c>
     </row>
@@ -1803,9 +1825,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="34" customWidth="1" min="2" max="2"/>
     <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1838,7 +1860,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manual review and correction of ConversionTester mapping</t>
+          <t>Correct ConversionTester mapping</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1860,7 +1882,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Documentation update</t>
+          <t>Expand error handling docs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1870,19 +1892,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Next cycle</t>
+          <t>Next sprint</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Monitor migration</t>
+          <t>Maintain test automation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1892,7 +1914,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Post-migration</t>
+          <t>Ongoing</t>
         </is>
       </c>
     </row>
@@ -1985,12 +2007,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>±4</t>
+          <t>±6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.9%</t>
+          <t>97.1%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2000,7 +2022,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>93/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2027,12 +2049,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>±11</t>
+          <t>±12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.6%</t>
+          <t>94.2%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2042,7 +2064,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>96/100</t>
+          <t>92/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2069,12 +2091,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>±14</t>
+          <t>±9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.8%</t>
+          <t>96.3%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2084,7 +2106,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>92/100</t>
+          <t>94/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2096,84 +2118,84 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ConversionTester</t>
+          <t>Reviewer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
+          <t>DI_Teradata_To_Snowflake_Reviewer.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_unittest.txt</t>
+          <t>di_teradata_to_snowflake_reviewer.txt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>98.8%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Invalid Match</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Reviewer</t>
+          <t>ConversionTester</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_Reviewer.txt</t>
+          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_reviewer.txt</t>
+          <t>di_teradata_to_snowflake_unittest.txt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>±7</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>96.5%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Invalid Match</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -2195,12 +2217,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Avg ±9</t>
+          <t>Avg ±7.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.5%</t>
+          <t>96.6%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2210,7 +2232,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>94.3/100</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2451,7 +2473,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2569,7 +2591,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Missing/invalid file</t>
+          <t>Missing file</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2660,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9-10</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2660,7 +2682,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9-10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2682,7 +2704,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9-10</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2704,7 +2726,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9-10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2748,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2770,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9-10</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2787,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2792,7 +2814,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9-10</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2836,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2858,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9-10</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2880,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>95-97/100</t>
+          <t>93/100</t>
         </is>
       </c>
     </row>
@@ -2881,11 +2903,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2923,22 +2945,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>712</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>721</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+12 (+2.8%)</t>
+          <t>+9 / +1.3%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Comparable</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -2950,22 +2972,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+2 (+10.5%)</t>
+          <t>+1 / +2.8%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Improved coverage</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -2977,22 +2999,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+0.1 (+4.8%)</t>
+          <t>-0.1 / -3%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3041,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None identical</t>
+          <t>All Modified</t>
         </is>
       </c>
     </row>
@@ -3046,14 +3068,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>High equivalence</t>
+          <t>Low Risk</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Files with Moderate Changes (90-95%)</t>
+          <t>Files with Moderate Changes</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3073,7 +3095,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Acceptable</t>
+          <t>Review</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3144,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>95.5%</t>
+          <t>96.6%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3153,7 +3175,7 @@
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="47" customWidth="1" min="2" max="2"/>
     <col width="40" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
@@ -3225,17 +3247,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>±4</t>
+          <t>±6</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>97.9%</t>
+          <t>97.1%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>93/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3267,17 +3289,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>±11</t>
+          <t>±12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>95.6%</t>
+          <t>94.2%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>96/100</t>
+          <t>92/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -3309,17 +3331,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>±14</t>
+          <t>±9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>91.8%</t>
+          <t>96.3%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>92/100</t>
+          <t>94/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3331,84 +3353,84 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ConversionTester</t>
+          <t>Reviewer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
+          <t>DI_Teradata_To_Snowflake_Reviewer.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_unittest.txt</t>
+          <t>di_teradata_to_snowflake_reviewer.txt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Invalid Match</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>98.8%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Reviewer</t>
+          <t>ConversionTester</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_Reviewer.txt</t>
+          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_reviewer.txt</t>
+          <t>di_teradata_to_snowflake_unittest.txt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Verified</t>
+          <t>Invalid</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>±7</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>96.5%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3456,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="40" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3489,17 +3511,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+4 (+8.2%)</t>
+          <t>+6 / +10%</t>
         </is>
       </c>
     </row>
@@ -3555,12 +3577,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3582,7 +3604,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3604,7 +3626,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3626,7 +3648,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3653,7 +3675,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>97.9%</t>
+          <t>97.1%</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3697,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>93/100</t>
         </is>
       </c>
     </row>

--- a/ComparisonAgent_Output/DI Teradata To Snowflake Conversion_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/DI Teradata To Snowflake Conversion_comparison/aava_enterprise_comparison_agent.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Table_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="SECTION_2_COMPARISON_SCOPE" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Scope_Summary_Table" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Matching_Confidence_Distributio" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Table_2" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="SECTION_4_DIMENSIONBASED_COMPAR" sheetId="6" state="visible" r:id="rId6"/>
@@ -17,13 +17,9 @@
     <sheet name="Table_3" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Component_Converter" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Component_UnitTest" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Component_ReconTest" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Component_Reviewer" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="SECTION_8_KEY_DIFFERENCES" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Overall_Migration_Risk_Level_HI" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Table_4" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Table_5" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Table_4" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-13 12:08:45</t>
+          <t>2026-01-13 15:00:42</t>
         </is>
       </c>
     </row>
@@ -484,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -498,541 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="39" customWidth="1" min="2" max="2"/>
-    <col width="39" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Aspect</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Filename</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DI_Teradata_To_Snowflake_UnitTest.txt</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>di_teradata_to_snowflake_unittest.txt</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lines of Code</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>+12 / +8.5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Functions/Classes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cyclomatic Complexity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Content Match Status</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lines Added</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lines Removed</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lines Changed</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Match Percentage</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>92/100</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Aspect</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Filename</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DI_Teradata_To_Snowflake_ReconTest.txt</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>di_teradata_to_snowflake_recontest.txt</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lines of Code</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>342</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>351</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>+9 / +2.6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Functions/Classes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cyclomatic Complexity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Content Match Status</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lines Added</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lines Removed</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lines Changed</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Match Percentage</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>96.3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94/100</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1054,12 +516,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 1.0</t>
+          <t>DI_Teradata_To_Snowflake_UnitTest.txt</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 2.0</t>
+          <t>di_teradata_to_snowflake_unittest.txt</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -1071,95 +533,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Lines of Code</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_Reviewer.txt</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_reviewer.txt</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+7 (+3.0%)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lines of Code</t>
+          <t>Functions/Classes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+3 / +4.9%</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Functions/Classes</t>
+          <t>Cyclomatic Complexity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>+0.1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cyclomatic Complexity</t>
+          <t>Content Match Status</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Content Match Status</t>
+          <t>Lines Added</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1169,19 +631,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lines Added</t>
+          <t>Lines Removed</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1191,7 +653,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1203,7 +665,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lines Removed</t>
+          <t>Lines Changed</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1213,7 +675,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1225,7 +687,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lines Changed</t>
+          <t>Match Percentage</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1235,19 +697,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>97.0%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Match Percentage</t>
+          <t>Dimension Score</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1262,29 +724,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>98.8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>98/100</t>
+          <t>94/100</t>
         </is>
       </c>
     </row>
@@ -1293,147 +733,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="27" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="29" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Severity</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Component</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Functional Impact</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Migration Impact</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ConversionTester/UnitTest</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>One-to-many mapping (invalid match)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Cannot validate equivalence</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Minor</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CHAR(30) → VARCHAR(30) for names in AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Possible padding difference</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Minor</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Teradata session/error logic omitted in AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Managed externally</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1443,8 +749,8 @@
   <cols>
     <col width="24" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="45" customWidth="1" min="3" max="3"/>
-    <col width="42" customWidth="1" min="4" max="4"/>
+    <col width="36" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1472,51 +778,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Invalid Match</t>
+          <t>Formatting/Refactoring</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>One-to-many mapping in ConversionTester</t>
+          <t>Minor differences in test scripts</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Remediate mapping, ensure unique pairing</t>
+          <t>Review and approve</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Test Coverage</t>
+          <t>Business Logic</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Comprehensive in all valid matches</t>
+          <t>No differences detected</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maintain and run all tests</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Functional Equivalence</t>
+          <t>Test Coverage</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1526,56 +832,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>High in matched pairs</t>
+          <t>Slight increase in coverage in 2.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>None needed</t>
+          <t>Acceptable</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Documentation Gaps</t>
+          <t>Documentation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Minor in error handling</t>
+          <t>Fully documented</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Expand Snowflake error handling docs</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Prerequisites Met</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>All files present, but invalid match exists</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Correct mapping before migration</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1584,7 +868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1599,8 +883,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1628,12 +912,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CONDITIONAL</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Valid pairs equivalent; invalid match present</t>
+          <t>All logic preserved</t>
         </is>
       </c>
     </row>
@@ -1650,7 +934,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>All scenarios covered in valid pairs</t>
+          <t>Minor improvements</t>
         </is>
       </c>
     </row>
@@ -1667,7 +951,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No regression detected</t>
+          <t>No degradation</t>
         </is>
       </c>
     </row>
@@ -1679,12 +963,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CONDITIONAL</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Minor gaps in error handling</t>
+          <t>Comprehensive</t>
         </is>
       </c>
     </row>
@@ -1696,12 +980,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CONDITIONAL</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>All files present, mapping issue remains</t>
+          <t>All files present</t>
         </is>
       </c>
     </row>
@@ -1713,12 +997,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CONDITIONAL</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Migration not fully ready until mapping resolved</t>
+          <t>Migration can proceed</t>
         </is>
       </c>
     </row>
@@ -1727,13 +1011,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1742,7 +1026,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="43" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1765,7 +1049,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CONDITIONAL</t>
+          <t>APPROVED</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1061,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Invalid file mapping requires remediation</t>
+          <t>All functional and technical equivalence criteria met</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1073,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
@@ -1801,120 +1085,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Conditional</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="34" customWidth="1" min="2" max="2"/>
-    <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+          <t>Immediate</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Action Required</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Responsible Team</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Timeline</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Correct ConversionTester mapping</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Workflow Owner / AAVA Team</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Immediate</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Expand error handling docs</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Workflow Owner / AAVA Team</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Next sprint</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Maintain test automation</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Workflow Owner / AAVA Team</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Proceed with migration</t>
         </is>
       </c>
     </row>
@@ -1939,10 +1134,10 @@
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="47" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="47" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
@@ -2012,22 +1207,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>98.2%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>93/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2049,12 +1244,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>±12</t>
+          <t>±7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.2%</t>
+          <t>97.0%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2064,7 +1259,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>92/100</t>
+          <t>94/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2091,27 +1286,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>±9</t>
+          <t>±11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.3%</t>
+          <t>95.6%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>94/100</t>
+          <t>96/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2138,7 +1333,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.8%</t>
+          <t>99.1%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2148,7 +1343,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2170,32 +1365,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_unittest.txt</t>
+          <t>di_teradata_to_snowflake_conversiontester.txt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>96.4%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Invalid Match</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2217,27 +1412,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Avg ±7.5</t>
+          <t>Avg ±7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>96.6%</t>
+          <t>97.3%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Incomplete Comparison</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>94.3/100</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2308,7 +1503,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2344,7 +1539,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2356,7 +1551,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -2381,7 +1576,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="39" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2404,24 +1599,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>High (90-100%)</t>
+          <t>High (&gt;=95%)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Direct name/role</t>
+          <t>All gates passed with high confidence</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Medium (70-89%)</t>
+          <t>Medium (85-94%)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2431,14 +1626,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Content similarity</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Low (50-69%)</t>
+          <t>Failed (&lt;85%)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2448,7 +1643,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Alphabetical</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2682,7 +1877,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2726,7 +1921,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2743,12 +1938,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2770,7 +1965,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2787,7 +1982,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2831,12 +2026,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2880,7 +2075,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93/100</t>
+          <t>97/100</t>
         </is>
       </c>
     </row>
@@ -2903,11 +2098,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="33" customWidth="1" min="1" max="1"/>
+    <col width="38" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2945,22 +2140,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>1107</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>1121</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+9 / +1.3%</t>
+          <t>+14 (+1.3%)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
     </row>
@@ -2972,17 +2167,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+1 / +2.8%</t>
+          <t>+1 (+2.4%)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2999,17 +2194,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.1 / -3%</t>
+          <t>+0.1 (+3.6%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3036,12 +2231,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>All Modified</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -3063,19 +2258,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Files with Moderate Changes</t>
+          <t>Files with Moderate Changes (90-95%)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3090,12 +2285,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -3122,7 +2317,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -3144,12 +2339,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>96.6%</t>
+          <t>97.3%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -3174,7 +2369,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="47" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="47" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
@@ -3252,17 +2447,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>98.2%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>93/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3289,17 +2484,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>±12</t>
+          <t>±7</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>94.2%</t>
+          <t>97.0%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>92/100</t>
+          <t>94/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -3331,22 +2526,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>±9</t>
+          <t>±11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>96.3%</t>
+          <t>95.6%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>94/100</t>
+          <t>96/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3378,12 +2573,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>98.8%</t>
+          <t>99.1%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -3405,32 +2600,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_unittest.txt</t>
+          <t>di_teradata_to_snowflake_conversiontester.txt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Invalid</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>96.4%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3456,7 +2651,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="40" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3511,17 +2706,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+6 / +10%</t>
+          <t>+6 (+2.7%)</t>
         </is>
       </c>
     </row>
@@ -3533,12 +2728,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3555,12 +2750,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3577,12 +2772,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3604,7 +2799,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3626,7 +2821,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3648,7 +2843,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3675,7 +2870,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>98.2%</t>
         </is>
       </c>
     </row>
@@ -3697,7 +2892,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93/100</t>
+          <t>98/100</t>
         </is>
       </c>
     </row>

--- a/ComparisonAgent_Output/DI Teradata To Snowflake Conversion_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/DI Teradata To Snowflake Conversion_comparison/aava_enterprise_comparison_agent.xlsx
@@ -17,9 +17,13 @@
     <sheet name="Table_3" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Component_Converter" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Component_UnitTest" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Table_4" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Component_ReconTest" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Component_Reviewer" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Component_ConversionTester" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Table_4" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Table_5" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-13 15:00:42</t>
+          <t>2026-01-14 11:57:50</t>
         </is>
       </c>
     </row>
@@ -480,7 +484,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -494,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,12 +520,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_UnitTest.txt</t>
+          <t>AAVA 1.0</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_unittest.txt</t>
+          <t>AAVA 2.0</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -533,95 +537,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lines of Code</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>DI_Teradata_To_Snowflake_UnitTest.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>di_teradata_to_snowflake_unittest.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+7 (+3.0%)</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Functions/Classes</t>
+          <t>Lines of Code</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>+5 (+5.1%)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cyclomatic Complexity</t>
+          <t>Functions/Classes</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+0.1</t>
+          <t>+1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Content Match Status</t>
+          <t>Cyclomatic Complexity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>+0.1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lines Added</t>
+          <t>Content Match Status</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -631,19 +635,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lines Removed</t>
+          <t>Lines Added</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -653,7 +657,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -665,7 +669,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lines Changed</t>
+          <t>Lines Removed</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -675,7 +679,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -687,7 +691,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Match Percentage</t>
+          <t>Lines Changed</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -697,34 +701,56 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>97.0%</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>95.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Dimension Score</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94/100</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>98/100</t>
         </is>
       </c>
     </row>
@@ -734,6 +760,807 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DI_Teradata_To_Snowflake_ReconTest.txt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>di_teradata_to_snowflake_recontest.txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lines of Code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>+18 (+9.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Functions/Classes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>+0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Content Match Status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>93.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>91/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="39" customWidth="1" min="2" max="2"/>
+    <col width="39" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DI_Teradata_To_Snowflake_Reviewer.txt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>di_teradata_to_snowflake_reviewer.txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lines of Code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>+6 (+7.1%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Functions/Classes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>+0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Content Match Status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>98.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="47" customWidth="1" min="2" max="2"/>
+    <col width="47" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>di_teradata_to_snowflake_conversiontester.txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lines of Code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>+5 (+5.9%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Functions/Classes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>+0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Content Match Status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>95.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>98/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -747,10 +1574,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="36" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -778,7 +1605,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Formatting/Refactoring</t>
+          <t>Refactoring Impact</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -788,19 +1615,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Minor differences in test scripts</t>
+          <t>Minor code structure changes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Review and approve</t>
+          <t>Review diffs</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Business Logic</t>
+          <t>Test Coverage</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -810,19 +1637,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No differences detected</t>
+          <t>All tests preserved</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Maintain CI/CD</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Test Coverage</t>
+          <t>Documentation Gaps</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -832,19 +1659,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Slight increase in coverage in 2.0</t>
+          <t>Minor documentation changes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Acceptable</t>
+          <t>Review comments</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Documentation</t>
+          <t>Performance Profile</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -854,12 +1681,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fully documented</t>
+          <t>No degradation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Monitor post-migration</t>
         </is>
       </c>
     </row>
@@ -868,7 +1695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -884,7 +1711,7 @@
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="23" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -917,7 +1744,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>All logic preserved</t>
+          <t>All logic matches</t>
         </is>
       </c>
     </row>
@@ -934,7 +1761,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Minor improvements</t>
+          <t>All cases covered</t>
         </is>
       </c>
     </row>
@@ -951,7 +1778,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No degradation</t>
+          <t>No issues</t>
         </is>
       </c>
     </row>
@@ -968,7 +1795,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Comprehensive</t>
+          <t>All components documented</t>
         </is>
       </c>
     </row>
@@ -985,7 +1812,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>All files present</t>
+          <t>All gates passed</t>
         </is>
       </c>
     </row>
@@ -1011,13 +1838,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1026,7 +1853,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="48" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1061,7 +1888,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All functional and technical equivalence criteria met</t>
+          <t>All components matched; minor differences only</t>
         </is>
       </c>
     </row>
@@ -1089,27 +1916,72 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Action Required</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Responsible Team</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timeline</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Proceed with migration</t>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Proceed</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Workflow Owner / AAVA Team</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Immediate</t>
         </is>
       </c>
     </row>
@@ -1202,27 +2074,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>±6</t>
+          <t>±7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.2%</t>
+          <t>97.1%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>94/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1244,27 +2116,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>±7</t>
+          <t>±5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.0%</t>
+          <t>95.6%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>94/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1286,27 +2158,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>±11</t>
+          <t>±18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.6%</t>
+          <t>93.2%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>96/100</t>
+          <t>91/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1328,12 +2200,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>±3</t>
+          <t>±6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.1%</t>
+          <t>98.0%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1343,7 +2215,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1370,12 +2242,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>±8</t>
+          <t>±5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>96.4%</t>
+          <t>95.6%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1385,7 +2257,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1412,27 +2284,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Avg ±7</t>
+          <t>Avg ±8.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>97.3%</t>
+          <t>95.9%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Conditional Pass</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>95.6/100</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1456,7 +2328,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="31" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1551,7 +2423,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -1576,7 +2448,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="39" customWidth="1" min="3" max="3"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1604,7 +2476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1621,12 +2493,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>All gates passed with acceptable confidence</t>
         </is>
       </c>
     </row>
@@ -1643,7 +2515,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>One or more gates failed</t>
         </is>
       </c>
     </row>
@@ -1965,7 +2837,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1982,12 +2854,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2004,12 +2876,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2026,12 +2898,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2075,7 +2947,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>98/100</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2974,7 @@
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2140,22 +3012,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>581</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>597</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+14 (+1.3%)</t>
+          <t>+16 (+2.8%)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Stable</t>
         </is>
       </c>
     </row>
@@ -2167,22 +3039,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+1 (+2.4%)</t>
+          <t>+2 (+6.5%)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Improved</t>
         </is>
       </c>
     </row>
@@ -2194,17 +3066,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+0.1 (+3.6%)</t>
+          <t>+0.2 (+9.5%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2231,12 +3103,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2258,12 +3130,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minimal Diff</t>
         </is>
       </c>
     </row>
@@ -2285,12 +3157,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Refactored</t>
         </is>
       </c>
     </row>
@@ -2317,7 +3189,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2339,12 +3211,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>97.3%</t>
+          <t>95.9%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -2442,22 +3314,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>±6</t>
+          <t>±7</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>98.2%</t>
+          <t>97.1%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>94/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -2484,22 +3356,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>±7</t>
+          <t>±5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>97.0%</t>
+          <t>95.6%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>94/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2526,22 +3398,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>±11</t>
+          <t>±18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>95.6%</t>
+          <t>93.2%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>96/100</t>
+          <t>91/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -2568,17 +3440,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>±3</t>
+          <t>±6</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>99.1%</t>
+          <t>98.0%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2610,17 +3482,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>±8</t>
+          <t>±5</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>96.4%</t>
+          <t>95.6%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2706,17 +3578,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>112</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+6 (+2.7%)</t>
+          <t>+7 (+6.3%)</t>
         </is>
       </c>
     </row>
@@ -2728,12 +3600,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2750,17 +3622,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>+0.1</t>
         </is>
       </c>
     </row>
@@ -2772,12 +3644,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2799,7 +3671,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2843,7 +3715,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2870,7 +3742,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>98.2%</t>
+          <t>97.1%</t>
         </is>
       </c>
     </row>
@@ -2892,7 +3764,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>94/100</t>
         </is>
       </c>
     </row>

--- a/ComparisonAgent_Output/DI Teradata To Snowflake Conversion_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/DI Teradata To Snowflake Conversion_comparison/aava_enterprise_comparison_agent.xlsx
@@ -16,14 +16,10 @@
     <sheet name="SECTION_5_OVERALL_COMPARISON_RE" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Table_3" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Component_Converter" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Component_UnitTest" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Component_ReconTest" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Component_Reviewer" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Component_ConversionTester" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Table_4" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Table_5" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Table_4" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Table_5" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-14 11:57:50</t>
+          <t>2026-01-16 01:19:18</t>
         </is>
       </c>
     </row>
@@ -484,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,251 +502,141 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="39" customWidth="1" min="2" max="2"/>
-    <col width="39" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="34" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Aspect</t>
+          <t>Risk Factor</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 1.0</t>
+          <t>Risk Level</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 2.0</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Change</t>
+          <t>Mitigation</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Unmatched/Invalid Files</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_UnitTest.txt</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_unittest.txt</t>
+          <t>None detected</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lines of Code</t>
+          <t>Refactoring/Formatting</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>Minor code changes only</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+5 (+5.1%)</t>
+          <t>Peer review</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Functions/Classes</t>
+          <t>Test Coverage</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>Comprehensive in both versions</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>CI/CD automation</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cyclomatic Complexity</t>
+          <t>Documentation Completeness</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>Well documented in both versions</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+0.1</t>
+          <t>Maintain standards</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Content Match Status</t>
+          <t>Business Logic Integrity</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fully preserved</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lines Added</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lines Removed</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lines Changed</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Match Percentage</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>95.6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>98/100</t>
+          <t>Regression testing</t>
         </is>
       </c>
     </row>
@@ -760,942 +646,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Aspect</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Filename</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DI_Teradata_To_Snowflake_ReconTest.txt</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>di_teradata_to_snowflake_recontest.txt</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lines of Code</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>201</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>+18 (+9.0%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Functions/Classes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cyclomatic Complexity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Content Match Status</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lines Added</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lines Removed</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lines Changed</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Match Percentage</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>91/100</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="39" customWidth="1" min="2" max="2"/>
-    <col width="39" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Aspect</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Filename</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DI_Teradata_To_Snowflake_Reviewer.txt</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>di_teradata_to_snowflake_reviewer.txt</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lines of Code</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>+6 (+7.1%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Functions/Classes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cyclomatic Complexity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Content Match Status</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lines Added</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lines Removed</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lines Changed</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Match Percentage</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>98.0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>97/100</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="47" customWidth="1" min="2" max="2"/>
-    <col width="47" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Aspect</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Filename</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>di_teradata_to_snowflake_conversiontester.txt</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lines of Code</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>+5 (+5.9%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Functions/Classes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cyclomatic Complexity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Content Match Status</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lines Added</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lines Removed</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lines Changed</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Match Percentage</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>95.6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>98/100</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="24" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Risk Factor</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Risk Level</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mitigation</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Refactoring Impact</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Minor code structure changes</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Review diffs</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Test Coverage</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>All tests preserved</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Maintain CI/CD</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Documentation Gaps</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Minor documentation changes</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Review comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Performance Profile</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>No degradation</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Monitor post-migration</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1711,7 +661,7 @@
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="33" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1744,7 +694,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>All logic matches</t>
+          <t>All logic matched</t>
         </is>
       </c>
     </row>
@@ -1761,7 +711,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>All cases covered</t>
+          <t>All cases validated</t>
         </is>
       </c>
     </row>
@@ -1778,7 +728,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No issues</t>
+          <t>No degradation observed</t>
         </is>
       </c>
     </row>
@@ -1795,7 +745,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>All components documented</t>
+          <t>All artifacts documented</t>
         </is>
       </c>
     </row>
@@ -1812,7 +762,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>All gates passed</t>
+          <t>All files present and validated</t>
         </is>
       </c>
     </row>
@@ -1829,7 +779,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Migration can proceed</t>
+          <t>Safe for migration</t>
         </is>
       </c>
     </row>
@@ -1838,7 +788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1853,7 +803,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="48" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1888,7 +838,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All components matched; minor differences only</t>
+          <t>All components matched with minor differences only.</t>
         </is>
       </c>
     </row>
@@ -1921,7 +871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2079,7 +1029,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>97.7%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2089,7 +1039,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>94/100</t>
+          <t>95/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2116,27 +1066,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>±5</t>
+          <t>±8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.6%</t>
+          <t>95.5%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>95/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -2158,12 +1108,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>±18</t>
+          <t>±12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.2%</t>
+          <t>95.0%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2173,7 +1123,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>91/100</t>
+          <t>94/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2200,27 +1150,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>±6</t>
+          <t>±14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.0%</t>
+          <t>96.2%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>95/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -2242,27 +1192,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>±5</t>
+          <t>±8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.6%</t>
+          <t>95.5%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>95/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -2284,22 +1234,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Avg ±8.2</t>
+          <t>Avg ±9.8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.9%</t>
+          <t>96.0%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Conditional Pass</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>95.6/100</t>
+          <t>95/100</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2328,7 +1278,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="31" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2423,7 +1373,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -2448,7 +1398,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="39" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2476,7 +1426,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2493,12 +1443,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>All gates passed with acceptable confidence</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2515,7 +1465,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>One or more gates failed</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2683,7 +1633,7 @@
   <cols>
     <col width="35" customWidth="1" min="1" max="1"/>
     <col width="29" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -2749,7 +1699,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2793,7 +1743,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2815,7 +1765,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2837,7 +1787,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2859,7 +1809,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2876,7 +1826,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2898,7 +1848,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2947,7 +1897,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>95/100</t>
         </is>
       </c>
     </row>
@@ -2974,7 +1924,7 @@
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3012,22 +1962,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>621</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>631</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+16 (+2.8%)</t>
+          <t>+10 (+1.6%)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Minor Diff</t>
         </is>
       </c>
     </row>
@@ -3039,22 +1989,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+2 (+6.5%)</t>
+          <t>+1 (+4.2%)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Improved</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -3066,17 +2016,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+0.2 (+9.5%)</t>
+          <t>+0.1 (+3.7%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3130,12 +2080,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Minimal Diff</t>
+          <t>Minor Diff</t>
         </is>
       </c>
     </row>
@@ -3157,12 +2107,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Refactored</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3211,12 +2161,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>95.9%</t>
+          <t>96.0%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Minor Diff</t>
         </is>
       </c>
     </row>
@@ -3319,12 +2269,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>97.7%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>94/100</t>
+          <t>95/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3356,22 +2306,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>±5</t>
+          <t>±8</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>95.6%</t>
+          <t>95.5%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>95/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3398,17 +2348,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>±18</t>
+          <t>±12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>93.2%</t>
+          <t>95.0%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>91/100</t>
+          <t>94/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3440,22 +2390,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>±6</t>
+          <t>±14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>98.0%</t>
+          <t>96.2%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>95/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3482,22 +2432,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>±5</t>
+          <t>±8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>95.6%</t>
+          <t>95.5%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>95/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -3578,17 +2528,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+7 (+6.3%)</t>
+          <t>+7 (+5.8%)</t>
         </is>
       </c>
     </row>
@@ -3622,12 +2572,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3644,12 +2594,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3742,7 +2692,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>97.7%</t>
         </is>
       </c>
     </row>
@@ -3764,7 +2714,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94/100</t>
+          <t>95/100</t>
         </is>
       </c>
     </row>

--- a/ComparisonAgent_Output/DI Teradata To Snowflake Conversion_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/DI Teradata To Snowflake Conversion_comparison/aava_enterprise_comparison_agent.xlsx
@@ -9,17 +9,21 @@
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Table_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Scope_Summary_Table" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SECTION_2_COMPARISON_SCOPE" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Matching_Confidence_Distributio" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Table_2" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="SECTION_4_DIMENSIONBASED_COMPAR" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="SECTION_5_OVERALL_COMPARISON_RE" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Table_3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Component_Converter" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Table_4" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Table_5" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Component_Conversion_Tester" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Component_Converter" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Component_Recon_Test" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Component_Reviewer" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Component_Unit_Test" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Table_4" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Table_5" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-16 01:19:18</t>
+          <t>2026-01-18 23:25:18</t>
         </is>
       </c>
     </row>
@@ -480,7 +484,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -494,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,141 +506,251 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="34" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Risk Factor</t>
+          <t>Aspect</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Risk Level</t>
+          <t>AAVA 1.0</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>AAVA 2.0</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Mitigation</t>
+          <t>Change</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Unmatched/Invalid Files</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>DI_Teradata_To_Snowflake_Converter.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>None detected</t>
+          <t>di_teradata_to_snowflake_converter.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Refactoring/Formatting</t>
+          <t>Lines of Code</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Minor code changes only</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Peer review</t>
+          <t>+3 / +13.6%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Test Coverage</t>
+          <t>Functions/Classes</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Comprehensive in both versions</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CI/CD automation</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Documentation Completeness</t>
+          <t>Cyclomatic Complexity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Well documented in both versions</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maintain standards</t>
+          <t>+0.1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Business Logic Integrity</t>
+          <t>Content Match Status</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fully preserved</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Regression testing</t>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>98.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>98/100</t>
         </is>
       </c>
     </row>
@@ -646,6 +760,942 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DI_Teradata_To_Snowflake_ReconTest.txt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>di_teradata_to_snowflake_recontest.txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lines of Code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>+4 / +9.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Functions/Classes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>+0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Content Match Status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>97.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>95/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="39" customWidth="1" min="2" max="2"/>
+    <col width="39" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DI_Teradata_To_Snowflake_Reviewer.txt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>di_teradata_to_snowflake_reviewer.txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lines of Code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>+3 / +10.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Functions/Classes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>+0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Content Match Status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>98.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>98/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="39" customWidth="1" min="2" max="2"/>
+    <col width="39" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DI_Teradata_To_Snowflake_UnitTest.txt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>di_teradata_to_snowflake_unittest.txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lines of Code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>+2 / +8.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Functions/Classes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>+0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Content Match Status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>99.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>99/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="32" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Risk Factor</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Risk Level</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mitigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Documentation Change</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Minor updates in Recon Test</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Review documentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Business Logic</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fully preserved</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No action needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Code Structure</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Equivalent or improved</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No action needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Test Coverage</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Comprehensive in both versions</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No action needed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -660,8 +1710,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="33" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="34" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -694,7 +1744,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>All logic matched</t>
+          <t>All logic and outcomes preserved</t>
         </is>
       </c>
     </row>
@@ -711,7 +1761,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>All cases validated</t>
+          <t>All critical paths tested</t>
         </is>
       </c>
     </row>
@@ -728,7 +1778,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No degradation observed</t>
+          <t>No degradation detected</t>
         </is>
       </c>
     </row>
@@ -740,12 +1790,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>READY</t>
+          <t>CONDITIONAL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>All artifacts documented</t>
+          <t>Minor updates in Recon Test</t>
         </is>
       </c>
     </row>
@@ -762,7 +1812,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>All files present and validated</t>
+          <t>All files present and matched</t>
         </is>
       </c>
     </row>
@@ -779,7 +1829,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Safe for migration</t>
+          <t>Safe to proceed with migration</t>
         </is>
       </c>
     </row>
@@ -788,7 +1838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -838,7 +1888,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All components matched with minor differences only.</t>
+          <t>All components matched and functionally equivalent; minor documentation changes only.</t>
         </is>
       </c>
     </row>
@@ -871,13 +1921,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -886,7 +1936,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
     <col width="28" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
   </cols>
@@ -921,7 +1971,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proceed</t>
+          <t>Review Recon Test docs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -930,6 +1980,28 @@
         </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>1 week</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Proceed with migration</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Workflow Owner / AAVA Team</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Immediate</t>
         </is>
@@ -959,7 +2031,7 @@
     <col width="47" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
@@ -1009,91 +2081,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Converter</t>
+          <t>Conversion Tester</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_Converter.txt</t>
+          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_converter.txt</t>
+          <t>di_teradata_to_snowflake_conversiontester.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>±7</t>
+          <t>±2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.7%</t>
+          <t>99.0%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UnitTest</t>
+          <t>Converter</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_UnitTest.txt</t>
+          <t>DI_Teradata_To_Snowflake_Converter.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_unittest.txt</t>
+          <t>di_teradata_to_snowflake_converter.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>±8</t>
+          <t>±3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.5%</t>
+          <t>98.5%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ReconTest</t>
+          <t>Recon Test</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1108,12 +2180,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>±12</t>
+          <t>±4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.0%</t>
+          <t>97.0%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1123,7 +2195,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>94/100</t>
+          <t>95/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1150,69 +2222,69 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>±14</t>
+          <t>±3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.2%</t>
+          <t>98.0%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ConversionTester</t>
+          <t>Unit Test</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
+          <t>DI_Teradata_To_Snowflake_UnitTest.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_conversiontester.txt</t>
+          <t>di_teradata_to_snowflake_unittest.txt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>±8</t>
+          <t>±2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.5%</t>
+          <t>99.2%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1234,27 +2306,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Avg ±9.8</t>
+          <t>Avg ±2.8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>96.0%</t>
+          <t>98.3%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent/Minor Diff</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>97.8/100</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1278,7 +2350,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="31" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1373,7 +2445,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -1398,7 +2470,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="39" customWidth="1" min="3" max="3"/>
+    <col width="43" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1426,7 +2498,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1443,12 +2515,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>All gates passed; minor structure changes</t>
         </is>
       </c>
     </row>
@@ -1465,7 +2537,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>One or more gates failed</t>
         </is>
       </c>
     </row>
@@ -1699,7 +2771,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1743,7 +2815,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1765,7 +2837,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1787,7 +2859,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1809,7 +2881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1831,7 +2903,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1897,7 +2969,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>99/100</t>
         </is>
       </c>
     </row>
@@ -1924,7 +2996,7 @@
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1962,22 +3034,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+10 (+1.6%)</t>
+          <t>+4 / +2.8%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Minor Increase</t>
         </is>
       </c>
     </row>
@@ -1989,17 +3061,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+1 (+4.2%)</t>
+          <t>+1 / +4.3%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2016,17 +3088,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+0.1 (+3.7%)</t>
+          <t>+0.1 / +4.8%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2053,12 +3125,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Identical</t>
         </is>
       </c>
     </row>
@@ -2080,12 +3152,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Formatting only</t>
         </is>
       </c>
     </row>
@@ -2161,12 +3233,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>96.0%</t>
+          <t>98.3%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>High Equivalence</t>
         </is>
       </c>
     </row>
@@ -2189,7 +3261,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="1" max="1"/>
     <col width="47" customWidth="1" min="2" max="2"/>
     <col width="47" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
@@ -2244,17 +3316,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Converter</t>
+          <t>Conversion Tester</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_Converter.txt</t>
+          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_converter.txt</t>
+          <t>di_teradata_to_snowflake_conversiontester.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2264,39 +3336,39 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>±7</t>
+          <t>±2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>97.7%</t>
+          <t>99.0%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UnitTest</t>
+          <t>Converter</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_UnitTest.txt</t>
+          <t>DI_Teradata_To_Snowflake_Converter.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_unittest.txt</t>
+          <t>di_teradata_to_snowflake_converter.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2306,29 +3378,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>±8</t>
+          <t>±3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>95.5%</t>
+          <t>98.5%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ReconTest</t>
+          <t>Recon Test</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2343,22 +3415,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Verified</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>±12</t>
+          <t>±4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>95.0%</t>
+          <t>97.0%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>94/100</t>
+          <t>95/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2390,39 +3462,39 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>±14</t>
+          <t>±3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>96.2%</t>
+          <t>98.0%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ConversionTester</t>
+          <t>Unit Test</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
+          <t>DI_Teradata_To_Snowflake_UnitTest.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_conversiontester.txt</t>
+          <t>di_teradata_to_snowflake_unittest.txt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2432,22 +3504,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>±8</t>
+          <t>±2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>95.5%</t>
+          <t>99.2%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2471,8 +3543,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="47" customWidth="1" min="2" max="2"/>
+    <col width="47" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -2506,12 +3578,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_Converter.txt</t>
+          <t>DI_Teradata_To_Snowflake_ConversionTester.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_teradata_to_snowflake_converter.txt</t>
+          <t>di_teradata_to_snowflake_conversiontester.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2528,17 +3600,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+7 (+5.8%)</t>
+          <t>+2 / +6.7%</t>
         </is>
       </c>
     </row>
@@ -2550,12 +3622,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2572,17 +3644,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+0.1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2621,7 +3693,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2665,7 +3737,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2692,7 +3764,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>97.7%</t>
+          <t>99.0%</t>
         </is>
       </c>
     </row>
@@ -2714,7 +3786,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>99/100</t>
         </is>
       </c>
     </row>
